--- a/Conditions Spreadsheet-2.xlsx
+++ b/Conditions Spreadsheet-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="15">
   <si>
     <t>triangle_pos</t>
   </si>
@@ -19,7 +19,10 @@
     <t>triangle_color</t>
   </si>
   <si>
-    <t>pink_circle_pos</t>
+    <t>red_circle_pos</t>
+  </si>
+  <si>
+    <t>blue_circle_pos</t>
   </si>
   <si>
     <t>(0, 0.25)</t>
@@ -49,7 +52,10 @@
     <t>(-0.1875, 0.1875)</t>
   </si>
   <si>
-    <t>p</t>
+    <t>r</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -82,18 +88,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,8 +106,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -115,13 +115,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -131,10 +128,13 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,6 +355,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.25"/>
     <col customWidth="1" min="3" max="3" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -367,370 +368,908 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
-      <c r="K1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="K2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="K3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="D15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="K20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="K25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D27" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="D31" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="K21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="T25" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
